--- a/noteapp excel.xlsx
+++ b/noteapp excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/652b2f6f25f01f67/Documents/Attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{16D9E938-66E7-4FE6-85B2-B77761F65F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2630E39-2E04-4821-B3F9-1265E42F7FF5}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{16D9E938-66E7-4FE6-85B2-B77761F65F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{534309C4-1C3B-4FB3-9089-7450FE4A4802}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="2376" windowWidth="17280" windowHeight="8880" xr2:uid="{C1A527BF-22A9-4BB9-B082-E1064402622B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1A527BF-22A9-4BB9-B082-E1064402622B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>signUp</t>
   </si>
@@ -164,12 +164,74 @@
   <si>
     <t>createNotes</t>
   </si>
+  <si>
+    <t>http://localhost:3030/editnote/6839bcc70c7906ec01e05903</t>
+  </si>
+  <si>
+    <t>{
+    "Message":"testmessage d",
+    "userId":"6839bab50c7906ec01e04e78"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "Note not found"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "Note updated",
+    "note": {
+        "_id": "6839d3040cf40c3a33c3eaf7",
+        "userId": "6839bab50c7906ec01e04e78",
+        "Message": "testmessage d",
+        "notesDate": "2025-05-30T15:47:16.662Z",
+        "__v": 0
+    }
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:3030/searchnotes</t>
+  </si>
+  <si>
+    <t>{
+    "userId": "6839bab50c7906ec01e04e78",
+    "notesDate": "2025-05-29"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "success",
+    "items": []
+}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "Error fetching notes",}</t>
+  </si>
+  <si>
+    <t>{
+    "status": "Note deleted"
+}</t>
+  </si>
+  <si>
+    <t>{    "status": "Error",}</t>
+  </si>
+  <si>
+    <t>http://localhost:3030/deletenote/6839d3040cf40c3a33c3eaf7</t>
+  </si>
+  <si>
+    <t>  "_id": "683991463baaa70086a79dce"}</t>
+  </si>
+  <si>
+    <t>http://localhost:3030/editnote/6839d3040cf40c3a33c3eaf7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +251,18 @@
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -213,12 +287,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A31176-76D5-4F21-80C6-4FF1A5E97406}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +651,7 @@
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -656,14 +740,75 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D42A8A77-0968-457B-985A-C106678218A5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{83B68640-EAF7-4323-838C-C176910920D2}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{2BB7ABFC-FBF4-482F-9158-FFBFC6FE1783}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{18DF9504-3DF7-4FB8-9131-9B77BCF61AF5}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{F0F5CF93-9647-4833-8F51-C0FA267D7627}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>